--- a/assets/template_anggota.xlsx
+++ b/assets/template_anggota.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">Nama</t>
   </si>
@@ -62,6 +62,33 @@
   </si>
   <si>
     <t xml:space="preserve">departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoh Nama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jambi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Jend. Sudirman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081234567890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456</t>
   </si>
 </sst>
 </file>
@@ -175,11 +202,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,13 +297,13 @@
   </sheetPr>
   <dimension ref="A1:P431"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.75"/>
@@ -335,19 +362,39 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
